--- a/元件与mega2650开发板插接对应表.xlsx
+++ b/元件与mega2650开发板插接对应表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\【硬件工程与商业项目】\A320 FCU外设项目\开发积累文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\【硬件工程与商业项目】\A320 FCU外设项目\Github上传文件夹\HanChan-FCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F3E2C4-60F6-47F1-96A2-B0F96BE76F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57B92D8-9938-4389-A1D4-D7A2B7DDF214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0EDAC526-2055-4185-A441-2B482E58E10B}"/>
   </bookViews>
@@ -162,7 +162,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>—— 寒蝉唱游  hanchanFCU-V1.2.2</t>
+    <t>—— 寒蝉唱游  hanchanFCU-V1.2.3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +621,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/元件与mega2650开发板插接对应表.xlsx
+++ b/元件与mega2650开发板插接对应表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\【硬件工程与商业项目】\A320 FCU外设项目\Github上传文件夹\HanChan-FCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57B92D8-9938-4389-A1D4-D7A2B7DDF214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DF3A22-FB1A-4D5A-80C4-8979D15CDED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0EDAC526-2055-4185-A441-2B482E58E10B}"/>
   </bookViews>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">VSDisplay  DinPin= A3  ClsPin= A4  ClkPin= A5  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用说明： button为开关、LED为灯、Display为显示屏。“=”后 为mega2650引脚号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -163,6 +159,10 @@
   </si>
   <si>
     <t>—— 寒蝉唱游  hanchanFCU-V1.2.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> （可选）VSDisplay  DinPin= A3  ClsPin= A4  ClkPin= A5 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +621,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,95 +638,95 @@
     </row>
     <row r="2" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1</v>
@@ -734,39 +734,39 @@
     </row>
     <row r="14" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
